--- a/src/test/resources/excel/testData.xlsx
+++ b/src/test/resources/excel/testData.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mosipa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mosipa\IdeaProjects\DataDrivenFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{096412FC-AD37-4027-879B-F10243BEB35E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CB8B4E-0156-45AD-AFBD-5810C48AD2A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{C0B71E92-200F-499D-885A-0A5CA8FC73CE}"/>
+    <workbookView xWindow="44085" yWindow="2895" windowWidth="12135" windowHeight="11385" xr2:uid="{C0B71E92-200F-499D-885A-0A5CA8FC73CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,6 +28,32 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>Ass</t>
+  </si>
+  <si>
+    <t>Fssas</t>
+  </si>
+  <si>
+    <t>alertText</t>
+  </si>
+  <si>
+    <t>Customer added successfully with customer id</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,12 +403,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2188D732-58D0-436F-BB8D-39EC4058FC41}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="41.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>12341</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>